--- a/en/downloads/data-excel/8.10.2.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
     <col min="10" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -673,8 +673,11 @@
       <c r="M3" s="8">
         <v>2019</v>
       </c>
+      <c r="N3" s="8">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -714,8 +717,11 @@
       <c r="M4" s="10">
         <v>20</v>
       </c>
+      <c r="N4" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -755,8 +761,11 @@
       <c r="M5" s="13">
         <v>1308.0999999999999</v>
       </c>
+      <c r="N5" s="13">
+        <v>1308.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -770,7 +779,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>

--- a/en/downloads/data-excel/8.10.2.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.2.xlsx
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
     <col min="10" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -676,8 +676,11 @@
       <c r="N3" s="8">
         <v>2020</v>
       </c>
+      <c r="O3" s="8">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -720,8 +723,11 @@
       <c r="N4" s="10">
         <v>15</v>
       </c>
+      <c r="O4" s="10">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -764,8 +770,11 @@
       <c r="N5" s="13">
         <v>1308.3</v>
       </c>
+      <c r="O5" s="13">
+        <v>1252.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -779,7 +788,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>

--- a/en/downloads/data-excel/8.10.2.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.2.xlsx
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
     <col min="10" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -679,8 +679,11 @@
       <c r="O3" s="8">
         <v>2021</v>
       </c>
+      <c r="P3" s="8">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -726,8 +729,11 @@
       <c r="O4" s="10">
         <v>14</v>
       </c>
+      <c r="P4" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -773,8 +779,11 @@
       <c r="O5" s="13">
         <v>1252.8</v>
       </c>
+      <c r="P5" s="13">
+        <v>2130.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -788,7 +797,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>

--- a/en/downloads/data-excel/8.10.2.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.2.xlsx
@@ -65,10 +65,6 @@
     <t>8.10.2.2 Финансовые показатели страховых компаний</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10.2.2 Камсыздандыруу компанияларынын финансылык индикаторлору
-</t>
-  </si>
-  <si>
     <t>8.10.2.2 Financial indicators of insurance companies</t>
   </si>
   <si>
@@ -135,6 +131,9 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>8.10.2.2 Камсыздандыруу компанияларынын финансылык индикаторлору</t>
   </si>
 </sst>
 </file>
@@ -585,7 +584,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -598,13 +597,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -635,13 +634,13 @@
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="8">
         <v>2010</v>
@@ -685,13 +684,13 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10">
         <v>18</v>
@@ -735,13 +734,13 @@
     </row>
     <row r="5" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="13">
         <v>477.2</v>

--- a/en/downloads/data-excel/8.10.2.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.2.xlsx
@@ -133,7 +133,7 @@
     <t>Items</t>
   </si>
   <si>
-    <t>8.10.2.2 Камсыздандыруу компанияларынын финансылык индикаторлору</t>
+    <t>8.10.2.2 Камсыздандыруу компаниялардын финансылык көрсөткүчтөрү</t>
   </si>
 </sst>
 </file>
@@ -581,11 +581,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,7 +593,7 @@
     <col min="10" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -616,7 +614,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -632,7 +630,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -681,8 +679,11 @@
       <c r="P3" s="8">
         <v>2022</v>
       </c>
+      <c r="Q3" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -731,8 +732,11 @@
       <c r="P4" s="10">
         <v>15</v>
       </c>
+      <c r="Q4" s="10">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="P5" s="13">
         <v>2130.4</v>
       </c>
+      <c r="Q5" s="13">
+        <v>3031.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -796,7 +803,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
